--- a/biology/Zoologie/Gynacanthaeschna_sikkima/Gynacanthaeschna_sikkima.xlsx
+++ b/biology/Zoologie/Gynacanthaeschna_sikkima/Gynacanthaeschna_sikkima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gynacanthaeschna
-Gynacanthaeschna sikkima, unique représentant du genre Gynacanthaeschna, est une espèce de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates)[2].
-Cette espèce se retrouve à plus de 1 200 mètres dans le Nord de l'Inde et du Népal [3].
+Gynacanthaeschna sikkima, unique représentant du genre Gynacanthaeschna, est une espèce de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates).
+Cette espèce se retrouve à plus de 1 200 mètres dans le Nord de l'Inde et du Népal .
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Gynacanthaeschna sikkima a été initialement décrite en 1891 par Ferdinand Karsch sous le protonyme de Cephalaeschna sikkima. En 1921, Frederic Charles Fraser (d) l'a classée sous le genre Gynacanthaeschna qui lui est propre.
 </t>
@@ -544,7 +558,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre Gynacanthaeschna :
 (en) Major F. C. Fraser, « Indian Dragonflies - Part XIII », Journal of the Bombay Natural History Society, Bombay, Bombay natural history society et inconnu, vol. 28, nos 3-4,‎ 1922, p. 610-621 (ISSN 0006-6982, OCLC 1536710, lire en ligne)
